--- a/results_process/align.xlsx
+++ b/results_process/align.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>split0001</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -430,7 +430,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -501,6 +501,12 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>13322880</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">

--- a/results_process/align.xlsx
+++ b/results_process/align.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>split0001</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -430,7 +430,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -505,6 +505,18 @@
         <v>13322880</v>
       </c>
       <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
         <v>17</v>
       </c>
     </row>

--- a/results_process/align.xlsx
+++ b/results_process/align.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>split0001</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -430,7 +430,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -524,6 +524,12 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>13335840</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -553,6 +559,12 @@
     <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>10</v>
+      </c>
+      <c r="B12">
+        <v>13258080</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7">

--- a/results_process/align.xlsx
+++ b/results_process/align.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>split0001</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -430,7 +430,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -528,6 +528,9 @@
         <v>13335840</v>
       </c>
       <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
         <v>17</v>
       </c>
     </row>

--- a/results_process/align.xlsx
+++ b/results_process/align.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>split0001</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -430,7 +430,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -537,6 +537,9 @@
     <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/results_process/align.xlsx
+++ b/results_process/align.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>split0001</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>ARC_x264_Q05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +434,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -530,6 +534,9 @@
       <c r="E6" t="s">
         <v>17</v>
       </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
       <c r="G6" t="s">
         <v>17</v>
       </c>
@@ -560,6 +567,9 @@
     <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7">

--- a/results_process/align.xlsx
+++ b/results_process/align.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>split0001</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>ARC_x264_Q05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -434,7 +438,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -558,6 +562,15 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -580,6 +593,9 @@
         <v>13258080</v>
       </c>
       <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
         <v>17</v>
       </c>
     </row>
